--- a/Proyectos Scratch descripciones.xlsx
+++ b/Proyectos Scratch descripciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatriz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cosas Bea/Scratch Github/scratch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717396E8-4583-FD40-978E-AF2E0A1ADD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CA316F-C8C8-8840-BDDC-7BD8F85B8DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="353">
   <si>
     <t>Se movera a la derecha, izquierda, de vuelta a la derecha al centro, arriba, abajo y de nuevo al centro</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>12 - Pacman facil</t>
+  </si>
+  <si>
+    <t>SUBIDO</t>
   </si>
 </sst>
 </file>
@@ -3009,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCBBFD1-51C3-4346-867C-AC645B70CEAC}">
-  <dimension ref="A2:B66"/>
+  <dimension ref="A2:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,7 +3023,7 @@
     <col min="1" max="1" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>313</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -3060,15 +3063,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>318</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>319</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>320</v>
       </c>
@@ -3084,22 +3090,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>349</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
